--- a/data/qna/한의학과.xlsx
+++ b/data/qna/한의학과.xlsx
@@ -1,37 +1,215 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="QnA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="QnA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>질문</t>
+  </si>
+  <si>
+    <t>답변</t>
+  </si>
+  <si>
+    <t>동의대 학교생활우수자전형(종합)</t>
+  </si>
+  <si>
+    <t>내신 1.347</t>
+  </si>
+  <si>
+    <t>한의대 문과 수시</t>
+  </si>
+  <si>
+    <t>한의학과 졸업앨범 찍나요</t>
+  </si>
+  <si>
+    <t>문과 고2  내신1.6초</t>
+  </si>
+  <si>
+    <t>학교생활 우수자</t>
+  </si>
+  <si>
+    <t>고만되네요 ㅠㅠ조언 부탁 드립니다😭</t>
+  </si>
+  <si>
+    <t>정말로 유급 많이 심한가요, 많이 빡센가요</t>
+  </si>
+  <si>
+    <t>학교 생활 질문있습니다</t>
+  </si>
+  <si>
+    <t>동의대 한의학과 가고 싶습니다(문과)</t>
+  </si>
+  <si>
+    <t>문과한의사</t>
+  </si>
+  <si>
+    <t>한의학과는 전과로는 못가나요?</t>
+  </si>
+  <si>
+    <t>후보3인데 추합될까요 ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>학생부종합 내신..!</t>
+  </si>
+  <si>
+    <t>안녕하세요 저는 지방 일반고 재학중인 문과생인데요!
+현재 1,2학년 총 내신은 1.03입니다. 다름이 아니라 교과전형으로 넣고 싶긴한데 최저문제때문에 교과는 일단 배제하고 학종으로 넣는다면 합격할 가능성이 어느정도인지 여쭤보고 싶습니다! 생기부는 제가 원래 교대를 희망했어서 과학을 지구과학만 선택했고, 1학년는 교대 생기부고 2학년때는 교대반 한의대반정도 3학년때는 한의대 생기부로 다 채울예정입니다! 면접은 그렇게 자신있는편은 아닙니다 ㅠ</t>
+  </si>
+  <si>
+    <t>동의대 식으로 내신 1.347 나오는데 일반 교과전형이나 농어촌, 기균으로 최저 맞추면 붙을 수 있을까요...?? (이과입니다)</t>
+  </si>
+  <si>
+    <t>안녕하세요 저는 몇 년 전에 수도권 외고 국제고 계열의 특목고 졸업했습니다. 전공이 맞지 않아 고민하던중 한의학과 가능성 있을지 여쭤봅니다
+졸업: 문과 특목고(외고 국제고 계열)
+-내신: 전과목 기준 2.3 (학종은 특목고 고려해주나요?? 특목고 기준으론 높은 내신인데 전형상으론 잘 모르겠어서 여쭤봅니다)
+-생기부: 이과나 한약 관련 내용은 없습니다.. 국제적 내용이에요 세특 자체는 풍성한데 고민이 많습니다.. 한의학 관련 생기부가 많이 중요한가요
+교과전형은 일반고 특목고 구분이 없어서 넣기가 어렵고 수능은 친지가 너무 오래되어서 자신이 없습니다. 다른 학교 한의대 추천도 괜찮아요. 알려주시면 큰 도움 될 것 같습니다!!</t>
+  </si>
+  <si>
+    <t>요즘 지방대 졸업앨범 안 만드는데 동의대는 만드나요  한의학과  다니는 사람만  알려주세요</t>
+  </si>
+  <si>
+    <t>이번  9월 모의고사는 31111 떠서 최저는 맞출 수 있을 것 같은데 
+제 성적으로 지균으로 한의학과 갈 수 있을까요?  😢 
+가능하다면 앞으로 뼈를갈아 1.0으로 맞추겠습니다!</t>
+  </si>
+  <si>
+    <t>20중반인데 선례 없나요? 다른 전형으로 선택할지 고민입니다</t>
+  </si>
+  <si>
+    <t>현 고3이고 원래 상경계열 지망했습니다.근데 최근 한의학을 알게되면서 다니고싶다는 생각이 드네요.전문적인 직업을 가진사람이 되고싶거든요!ㅎ현실적으로 지거국만 바라보고 공부했기에 한의대를 목표로 한다면 재수를해야되거든요 ㅠ
+1상경계열 나오면 여자는 대기업 간다고 하더라도 오래못다니고~뭐 이런말들 많잖아요 정말 그럴까요?
+2현실적으로 수능 얼마나 받아야 합격할수있을까요?
+3안정적이고 취업걱정없다던데 한의예과의 전망이나 현재상황? 대학라이프가 궁금해요
+주저리 말이 많았네요 ㅠㅠ 진로고민이 커서 어떤것이든 말씀 남겨주시면 정말감사하겠습니다!!😆</t>
+  </si>
+  <si>
+    <t>원광한과 동의한 중에서 지원 고민하고 있는데 동의한이 칸수가 더 높고 부산이 살기 좋을 것 같아서 동의한 지원할까 생각중입니다.
+그런데 동의대가 3d 중에 가장 공부 빡세다는 글을 많이 봐서.. 어느 정도로 빡센지 궁금합니다. 얼마나 공부 열심히 해야 하나요? 학점이 별로 안 중요하다고 하기는 하던데.. 유급 당하는 사람 많나요?
+제가 문과에서 지원하는 거라서 문과생이면 유급 각인가요 혹시..
+그리고 비합리적인 교수님 혹시 많나요??
+서울에서 오면 기숙사 합격하나요? 기숙사 시설은 어떤가요??
+도와주십ㅅ쇼 ㅠㅠ (+ KY 반수생인데 KY 문과 다니는 것보다 한의대 다니는 게 전망이 안정적이겠죠?)</t>
+  </si>
+  <si>
+    <t>1. 찾아보니까 기숙사가 효민 1관 2관 행복 
+이렇게 3개 있던데 차이점이 무엇이고 예과생은 보통 어디를 쓰나요?? 위치가 다르긴하던데 지도 상에서는 예과가 쓰는 건물이 무엇인지 모르겠어서요
+2. 예1은 가야에서만 있는거 맞나요?? 아니면 예1부터 가야양정 이동하나요? 예과생의 가야 양정캠 사용에 관한 부분이 헷갈립니다 ㅠ
+3. 올해 비대면 하셨나요?? 내년에도 비대면할까요?
+감사합니다 (한의예과에 올린거랑 같은 내용입니다.)</t>
+  </si>
+  <si>
+    <t>현재 부산에 있는 일반고에 다니고 있습니다. 1학년때는 살짝 시험에서도 실수를 하고 제가 약간 거만?해져서 내신이 1.2에서 1.5정도로 떨어지고 결국 1학년 총 내신 1.36을 받게 되었습니다. 이제 고2로 올라가는데 정말 열심히 할 마음을 다잡았고 동의대 지역인재 교과전형과 학종을 지원해보려 합니다. 답변해주실때 혹시 합격하셨다면 합격 내신점수나 학생부엔 어떤 내용을 넣으셨는지 답변해주실 수 있나요...?</t>
+  </si>
+  <si>
+    <t>문과한의사가 돼나요? 가능하다면 쟤가 꿈이 검사엿다보니 1학년때는 다 법쪽으로 적었거든요 그래서 교과로 갈라고 하는데 3학년때 까지 1.5~6 가능한가요? 그리고 정시는어느정도 나와야 하나요 쟤가 국영수 123 탐구 올1 나오거든요 가능한가요?</t>
+  </si>
+  <si>
+    <t>한의학과가 가고싶은데 성적이 안되서 못가요 물론 공부 안한 제 잘못이지만 혹시나 전과로도 가능한지 동의대 전과는 쉬운편인지 알려주세요</t>
+  </si>
+  <si>
+    <t>2014년부터는 5번 이상까지 돌긴하던데 2013년이 2번까지만 돌아서 불안해요 너무 ㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>지금 고2인 학생입니다. 1학년때 국영수과 총 내신이 2.1나왔는데, 앞으로 이점수대를 유지하면 이 학교에 합격할수있을까요..??올려야한다면 어느정도 올려야 할까요??</t>
+  </si>
+  <si>
+    <t>저도 2학년 1학기까지 교대생기부였어요 ! 문과 종합이고요  
+한의쪽으로 바뀐 명확한 이유 있으면 상관없어요! 
+걱정마시고 늦은만큼 빡세게 생기부 채우시면 될것 같아요</t>
+  </si>
+  <si>
+    <t>ssap 가능, 근데 오지 마세요 저라면 다른 한의대 씁니다</t>
+  </si>
+  <si>
+    <t>교과가 어려우시면 학종으로 넣으시려고 하는 건가요? 
+관련 생기부가 없고 오히여 타학과 내용만 가득한 것은 
+학종에서 독으로 작용하기 딱 좋은 요소입니다ㅜㅜ
+하지만 면접이 있는 전형이고 면접 때 관련 세특이 없는 점에 대해 정말 잘 커버치신다면 가능성이 있을지도요…!
+그리고 수능이 자신이 없다고 하셨는데
+한의학과는 수능 최저가 존재할겁니다…!</t>
+  </si>
+  <si>
+    <t>답변 없음</t>
+  </si>
+  <si>
+    <t>22 교과가 좀 심하게 빵이었어서 최대한 1.0 맞추시는게 여기 포함해서 다른 메디컬 입시에도 훨씬 유리하실거에요</t>
+  </si>
+  <si>
+    <t>어려울 것 같습니다. 교과전형 추천드려요.</t>
+  </si>
+  <si>
+    <t>1. 대기업 쪽은 잘 모르지만..사바사인 것 같습니다!
+2. 문과는 전체에서 다섯 개 이내로 틀리기 / 이과는 모든 과목 1등급 컷 정도
+3. 전망은 정부나 정책 등에 영향을 많이 받기 때문에 어떻게 될 지 모르겠네요..! 그래도 저는 나쁘지 않다고 봅니다.
+ 학교 공부가 많이 빡세긴 하지만 취업 걱정 없이 주어진 공부만 버텨내면 된다는 점이 좋은 것 같아요. 하지만 현실이나 인터넷 공간에서 한의학과 한의사에 대한 무시와 비난이 많아 정신적으로 힘들 수도 있어요. 그래도 워라밸이 좋으면서 많은 수입을 얻을 수 있고, 환자들을 치료하며 보람을 얻을 수 있는 좋은 직업이라고 생각합니다. 잘 고민하시고 본인에게 맞는 길을 걷게 되셨으면 좋겠습니다! 지금 많이 힘들텐데 응원해요!✊</t>
+  </si>
+  <si>
+    <t>유급에 대한 걱정이 있는 것은 사실이지만 유급 걱정을 하는 사람은 유급 안 당해요. 장학금을 꼭 받아야겠다는 생각이 있지 않은 이상 남들 할 때 하는 만큼만 하면 됩니다. 공부량은 확실히 많습니다. 문과생이라고 더 유급을 많이 당하냐는 건 괜한 걱정이고요. 문과생이든 이과생이든 유리한 점과 불리한 점이 존재한답니다. 신입생은 기숙사에 대체로 들어갈 수 있습니다. 그 이후부터는 학점도 반영이 됩니다. 한의대는 예과 2학년 1학기까지는 두 개의 캠퍼스를 모두 오가며 수업을 듣고, 예과 2학년 2학기부터는 양정캠퍼스(본캠 아님)에서만 수업을 듣습니다. 그런데 기숙사는 본캠에 있어서 그때부터는 대부분 자취합니다. 기숙사는 행복기숙사가 좋대요.</t>
+  </si>
+  <si>
+    <t>1. 효민1은 외국인들이랑 체육하는 애들 전용, 효민2는 일반 기숙산데 사람 없어서 편하고 조용함. 1인실 있음, 행복은 신설건물이라 세련됐지만 사람 ㄴㅓ무 많아서 힘들었음
+2. 예과생ㅇ 아니라 모르겠지만 양정은 한의대만 있는 걸로 암
+3. 올해 대면 비대면 섞어서 함. 내년에 비대면 하고 아마 시험은 대면으로 칠 것 같은데 내년 상황은 아무도 모름ㅇㅇ</t>
+  </si>
+  <si>
+    <t>외부 봉사 많이 하고 성적 잘 챙기고 대회수상도 많이 하면 쌉가능 아 최저는 당근 맞춰야하공</t>
+  </si>
+  <si>
+    <t>문과도 한의대 지원 되구요 수시는 하기 나름이라 말씀드리기 어렵네요ㅠ 정시는 12311이면 절대 불가능이고 문과시라면 올1에 최소 두과목은 높은 1등급이어야 커트 걸칠까말까 합니다</t>
+  </si>
+  <si>
+    <t>어떤학교든 의료계열은 전과가 불가능해요 .  즉, 한의학과도 전과로 못갑니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 반갑습니다! 동의대학교 입학홍보대사 WE-DEU입니다😊😊
+에브리타임으로 문의주셨는데, 페이스북 wedeu890로 페이스북메세지 보내주시거나 인스타그램 we_deu로 DM 보내주시면 상세하게 답변도와드리겠습니다❤️
+동의대학교 입시에 관심가져주셔서 감사합니다💕</t>
+  </si>
+  <si>
+    <t>안녕하세요 동의대학교 입학홍보대사 Wedeu 입니다💙
+에브리타임으로 문의 주셨는데용 페이스북Wedeu890이나 인스타그램We_deu검색하셔서 메신저나 다이렉트 보내주시면 더욱 상세하게 답변해 드리겠습니다!😊</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +224,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,215 +540,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>질문</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>답변</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>동의대 학교생활우수자전형(종합)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>저도 2학년 1학기까지 교대생기부였어요 ! 문과 종합이고요  
-한의쪽으로 바뀐 명확한 이유 있으면 상관없어요! 
-걱정마시고 늦은만큼 빡세게 생기부 채우시면 될것 같아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>내신 1.347</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ssap 가능, 근데 오지 마세요 저라면 다른 한의대 씁니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>한의대 문과 수시</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>교과가 어려우시면 학종으로 넣으시려고 하는 건가요? 
-관련 생기부가 없고 오히여 타학과 내용만 가득한 것은 
-학종에서 독으로 작용하기 딱 좋은 요소입니다ㅜㅜ
-하지만 면접이 있는 전형이고 면접 때 관련 세특이 없는 점에 대해 정말 잘 커버치신다면 가능성이 있을지도요…!
-그리고 수능이 자신이 없다고 하셨는데
-한의학과는 수능 최저가 존재할겁니다…!</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>한의학과 졸업앨범 찍나요</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>문과 고2  내신1.6초</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>22 교과가 좀 심하게 빵이었어서 최대한 1.0 맞추시는게 여기 포함해서 다른 메디컬 입시에도 훨씬 유리하실거에요</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>학교생활 우수자</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>어려울 것 같습니다. 교과전형 추천드려요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>고만되네요 ㅠㅠ조언 부탁 드립니다😭</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1. 대기업 쪽은 잘 모르지만..사바사인 것 같습니다!
-2. 문과는 전체에서 다섯 개 이내로 틀리기 / 이과는 모든 과목 1등급 컷 정도
-3. 전망은 정부나 정책 등에 영향을 많이 받기 때문에 어떻게 될 지 모르겠네요..! 그래도 저는 나쁘지 않다고 봅니다.
- 학교 공부가 많이 빡세긴 하지만 취업 걱정 없이 주어진 공부만 버텨내면 된다는 점이 좋은 것 같아요. 하지만 현실이나 인터넷 공간에서 한의학과 한의사에 대한 무시와 비난이 많아 정신적으로 힘들 수도 있어요. 그래도 워라밸이 좋으면서 많은 수입을 얻을 수 있고, 환자들을 치료하며 보람을 얻을 수 있는 좋은 직업이라고 생각합니다. 잘 고민하시고 본인에게 맞는 길을 걷게 되셨으면 좋겠습니다! 지금 많이 힘들텐데 응원해요!✊</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>정말로 유급 많이 심한가요, 많이 빡센가요</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>유급에 대한 걱정이 있는 것은 사실이지만 유급 걱정을 하는 사람은 유급 안 당해요. 장학금을 꼭 받아야겠다는 생각이 있지 않은 이상 남들 할 때 하는 만큼만 하면 됩니다. 공부량은 확실히 많습니다. 문과생이라고 더 유급을 많이 당하냐는 건 괜한 걱정이고요. 문과생이든 이과생이든 유리한 점과 불리한 점이 존재한답니다. 신입생은 기숙사에 대체로 들어갈 수 있습니다. 그 이후부터는 학점도 반영이 됩니다. 한의대는 예과 2학년 1학기까지는 두 개의 캠퍼스를 모두 오가며 수업을 듣고, 예과 2학년 2학기부터는 양정캠퍼스(본캠 아님)에서만 수업을 듣습니다. 그런데 기숙사는 본캠에 있어서 그때부터는 대부분 자취합니다. 기숙사는 행복기숙사가 좋대요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>학교 생활 질문있습니다</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1. 효민1은 외국인들이랑 체육하는 애들 전용, 효민2는 일반 기숙산데 사람 없어서 편하고 조용함. 1인실 있음, 행복은 신설건물이라 세련됐지만 사람 ㄴㅓ무 많아서 힘들었음
-2. 예과생ㅇ 아니라 모르겠지만 양정은 한의대만 있는 걸로 암
-3. 올해 대면 비대면 섞어서 함. 내년에 비대면 하고 아마 시험은 대면으로 칠 것 같은데 내년 상황은 아무도 모름ㅇㅇ</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>동의대 한의학과 가고 싶습니다(문과)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>외부 봉사 많이 하고 성적 잘 챙기고 대회수상도 많이 하면 쌉가능 아 최저는 당근 맞춰야하공</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>문과한의사</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>문과도 한의대 지원 되구요 수시는 하기 나름이라 말씀드리기 어렵네요ㅠ 정시는 12311이면 절대 불가능이고 문과시라면 올1에 최소 두과목은 높은 1등급이어야 커트 걸칠까말까 합니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>한의학과는 전과로는 못가나요?</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>어떤학교든 의료계열은 전과가 불가능해요 .  즉, 한의학과도 전과로 못갑니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>후보3인데 추합될까요 ㅠㅠㅠ</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>안녕하세요. 반갑습니다! 동의대학교 입학홍보대사 WE-DEU입니다😊😊
-에브리타임으로 문의주셨는데, 페이스북 wedeu890로 페이스북메세지 보내주시거나 인스타그램 we_deu로 DM 보내주시면 상세하게 답변도와드리겠습니다❤️
-동의대학교 입시에 관심가져주셔서 감사합니다💕</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>학생부종합 내신..!</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>안녕하세요 동의대학교 입학홍보대사 Wedeu 입니다💙
-에브리타임으로 문의 주셨는데용 페이스북Wedeu890이나 인스타그램We_deu검색하셔서 메신저나 다이렉트 보내주시면 더욱 상세하게 답변해 드리겠습니다!😊</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/qna/한의학과.xlsx
+++ b/data/qna/한의학과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,10 +458,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>한의학과</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>동의대 학교생활우수자전형(종합)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>안녕하세요 저는 지방 일반고 재학중인 문과생인데요!
+현재 1,2학년 총 내신은 1.03입니다. 다름이 아니라 교과전형으로 넣고 싶긴한데 최저문제때문에 교과는 일단 배제하고 학종으로 넣는다면 합격할 가능성이 어느정도인지 여쭤보고 싶습니다! 생기부는 제가 원래 교대를 희망했어서 과학을 지구과학만 선택했고, 1학년는 교대 생기부고 2학년때는 교대반 한의대반정도 3학년때는 한의대 생기부로 다 채울예정입니다! 면접은 그렇게 자신있는편은 아닙니다 ㅠ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>저도 2학년 1학기까지 교대생기부였어요 ! 문과 종합이고요  
 한의쪽으로 바뀐 명확한 이유 있으면 상관없어요! 
@@ -462,10 +483,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>한의학과</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>내신 1.347</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>동의대 식으로 내신 1.347 나오는데 일반 교과전형이나 농어촌, 기균으로 최저 맞추면 붙을 수 있을까요...?? (이과입니다)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>ssap 가능, 근데 오지 마세요 저라면 다른 한의대 씁니다</t>
         </is>
@@ -474,10 +505,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>한의학과</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>한의대 문과 수시</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>안녕하세요 저는 몇 년 전에 수도권 외고 국제고 계열의 특목고 졸업했습니다. 전공이 맞지 않아 고민하던중 한의학과 가능성 있을지 여쭤봅니다
+졸업: 문과 특목고(외고 국제고 계열)
+-내신: 전과목 기준 2.3 (학종은 특목고 고려해주나요?? 특목고 기준으론 높은 내신인데 전형상으론 잘 모르겠어서 여쭤봅니다)
+-생기부: 이과나 한약 관련 내용은 없습니다.. 국제적 내용이에요 세특 자체는 풍성한데 고민이 많습니다.. 한의학 관련 생기부가 많이 중요한가요
+교과전형은 일반고 특목고 구분이 없어서 넣기가 어렵고 수능은 친지가 너무 오래되어서 자신이 없습니다. 다른 학교 한의대 추천도 괜찮아요. 알려주시면 큰 도움 될 것 같습니다!!</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>교과가 어려우시면 학종으로 넣으시려고 하는 건가요? 
 관련 생기부가 없고 오히여 타학과 내용만 가득한 것은 
@@ -491,123 +536,132 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>한의학과 졸업앨범 찍나요</t>
+          <t>한의학과</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>문과 고2  내신1.6초</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>이번  9월 모의고사는 31111 떠서 최저는 맞출 수 있을 것 같은데 
+제 성적으로 지균으로 한의학과 갈 수 있을까요?  😢 
+가능하다면 앞으로 뼈를갈아 1.0으로 맞추겠습니다!</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22 교과가 좀 심하게 빵이었어서 최대한 1.0 맞추시는게 여기 포함해서 다른 메디컬 입시에도 훨씬 유리하실거에요</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>문과 고2  내신1.6초</t>
+          <t>한의학과</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22 교과가 좀 심하게 빵이었어서 최대한 1.0 맞추시는게 여기 포함해서 다른 메디컬 입시에도 훨씬 유리하실거에요</t>
+          <t>학교생활 우수자</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20중반인데 선례 없나요? 다른 전형으로 선택할지 고민입니다</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>어려울 것 같습니다. 교과전형 추천드려요.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>학교생활 우수자</t>
+          <t>한의학과</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>어려울 것 같습니다. 교과전형 추천드려요.</t>
+          <t>동의대 한의학과 가고 싶습니다(문과)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>현재 부산에 있는 일반고에 다니고 있습니다. 1학년때는 살짝 시험에서도 실수를 하고 제가 약간 거만?해져서 내신이 1.2에서 1.5정도로 떨어지고 결국 1학년 총 내신 1.36을 받게 되었습니다. 이제 고2로 올라가는데 정말 열심히 할 마음을 다잡았고 동의대 지역인재 교과전형과 학종을 지원해보려 합니다. 답변해주실때 혹시 합격하셨다면 합격 내신점수나 학생부엔 어떤 내용을 넣으셨는지 답변해주실 수 있나요...?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>외부 봉사 많이 하고 성적 잘 챙기고 대회수상도 많이 하면 쌉가능 아 최저는 당근 맞춰야하공</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>고만되네요 ㅠㅠ조언 부탁 드립니다😭</t>
+          <t>한의학과</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1. 대기업 쪽은 잘 모르지만..사바사인 것 같습니다!
-2. 문과는 전체에서 다섯 개 이내로 틀리기 / 이과는 모든 과목 1등급 컷 정도
-3. 전망은 정부나 정책 등에 영향을 많이 받기 때문에 어떻게 될 지 모르겠네요..! 그래도 저는 나쁘지 않다고 봅니다.
- 학교 공부가 많이 빡세긴 하지만 취업 걱정 없이 주어진 공부만 버텨내면 된다는 점이 좋은 것 같아요. 하지만 현실이나 인터넷 공간에서 한의학과 한의사에 대한 무시와 비난이 많아 정신적으로 힘들 수도 있어요. 그래도 워라밸이 좋으면서 많은 수입을 얻을 수 있고, 환자들을 치료하며 보람을 얻을 수 있는 좋은 직업이라고 생각합니다. 잘 고민하시고 본인에게 맞는 길을 걷게 되셨으면 좋겠습니다! 지금 많이 힘들텐데 응원해요!✊</t>
+          <t>문과한의사</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>문과한의사가 돼나요? 가능하다면 쟤가 꿈이 검사엿다보니 1학년때는 다 법쪽으로 적었거든요 그래서 교과로 갈라고 하는데 3학년때 까지 1.5~6 가능한가요? 그리고 정시는어느정도 나와야 하나요 쟤가 국영수 123 탐구 올1 나오거든요 가능한가요?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>문과도 한의대 지원 되구요 수시는 하기 나름이라 말씀드리기 어렵네요ㅠ 정시는 12311이면 절대 불가능이고 문과시라면 올1에 최소 두과목은 높은 1등급이어야 커트 걸칠까말까 합니다</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>정말로 유급 많이 심한가요, 많이 빡센가요</t>
+          <t>한의학과</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>유급에 대한 걱정이 있는 것은 사실이지만 유급 걱정을 하는 사람은 유급 안 당해요. 장학금을 꼭 받아야겠다는 생각이 있지 않은 이상 남들 할 때 하는 만큼만 하면 됩니다. 공부량은 확실히 많습니다. 문과생이라고 더 유급을 많이 당하냐는 건 괜한 걱정이고요. 문과생이든 이과생이든 유리한 점과 불리한 점이 존재한답니다. 신입생은 기숙사에 대체로 들어갈 수 있습니다. 그 이후부터는 학점도 반영이 됩니다. 한의대는 예과 2학년 1학기까지는 두 개의 캠퍼스를 모두 오가며 수업을 듣고, 예과 2학년 2학기부터는 양정캠퍼스(본캠 아님)에서만 수업을 듣습니다. 그런데 기숙사는 본캠에 있어서 그때부터는 대부분 자취합니다. 기숙사는 행복기숙사가 좋대요.</t>
+          <t>한의학과는 전과로는 못가나요?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>한의학과가 가고싶은데 성적이 안되서 못가요 물론 공부 안한 제 잘못이지만 혹시나 전과로도 가능한지 동의대 전과는 쉬운편인지 알려주세요</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>어떤학교든 의료계열은 전과가 불가능해요 .  즉, 한의학과도 전과로 못갑니다.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>학교 생활 질문있습니다</t>
+          <t>한의학과</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1. 효민1은 외국인들이랑 체육하는 애들 전용, 효민2는 일반 기숙산데 사람 없어서 편하고 조용함. 1인실 있음, 행복은 신설건물이라 세련됐지만 사람 ㄴㅓ무 많아서 힘들었음
-2. 예과생ㅇ 아니라 모르겠지만 양정은 한의대만 있는 걸로 암
-3. 올해 대면 비대면 섞어서 함. 내년에 비대면 하고 아마 시험은 대면으로 칠 것 같은데 내년 상황은 아무도 모름ㅇㅇ</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>동의대 한의학과 가고 싶습니다(문과)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>외부 봉사 많이 하고 성적 잘 챙기고 대회수상도 많이 하면 쌉가능 아 최저는 당근 맞춰야하공</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>문과한의사</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>문과도 한의대 지원 되구요 수시는 하기 나름이라 말씀드리기 어렵네요ㅠ 정시는 12311이면 절대 불가능이고 문과시라면 올1에 최소 두과목은 높은 1등급이어야 커트 걸칠까말까 합니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>한의학과는 전과로는 못가나요?</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>어떤학교든 의료계열은 전과가 불가능해요 .  즉, 한의학과도 전과로 못갑니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
           <t>후보3인데 추합될까요 ㅠㅠㅠ</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2014년부터는 5번 이상까지 돌긴하던데 2013년이 2번까지만 돌아서 불안해요 너무 ㅠㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>안녕하세요. 반갑습니다! 동의대학교 입학홍보대사 WE-DEU입니다😊😊
 에브리타임으로 문의주셨는데, 페이스북 wedeu890로 페이스북메세지 보내주시거나 인스타그램 we_deu로 DM 보내주시면 상세하게 답변도와드리겠습니다❤️
@@ -615,13 +669,23 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>한의학과</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>학생부종합 내신..!</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>지금 고2인 학생입니다. 1학년때 국영수과 총 내신이 2.1나왔는데, 앞으로 이점수대를 유지하면 이 학교에 합격할수있을까요..??올려야한다면 어느정도 올려야 할까요??</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>안녕하세요 동의대학교 입학홍보대사 Wedeu 입니다💙
 에브리타임으로 문의 주셨는데용 페이스북Wedeu890이나 인스타그램We_deu검색하셔서 메신저나 다이렉트 보내주시면 더욱 상세하게 답변해 드리겠습니다!😊</t>
